--- a/biology/Zoologie/Ialtris/Ialtris.xlsx
+++ b/biology/Zoologie/Ialtris/Ialtris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ialtris est un genre de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ialtris est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Hispaniola[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques d'Hispaniola.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2013) :
 Ialtris agyrtes Schwartz &amp; Rossman, 1976
 Ialtris dorsalis (Günther, 1858)
 Ialtris haetianus (Cochran, 1935)
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cochran, 1935 : New reptiles and amphibians collected in Haiti by P. J. Darlington. Proceedings of the Boston Society of Natural History, vol. 40, p. 367-376.
 Cope, 1863 "1862"  : Synopsis of the species of Holcosus and Ameiva, with diagnoses of new West Indian and South American Colubridae. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 60-82 (texte intégral).</t>
